--- a/FinalResultsPerAlgorithm/HeapSort.xlsx
+++ b/FinalResultsPerAlgorithm/HeapSort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TuDublin\Masters Project\Git Clone\MastersProject2021\FinalResultsPerAlgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B8DA93-24CB-45D7-8FEE-E8D331F5BD87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35746658-27EB-421F-A90C-91FFE236C4B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,7 +360,7 @@
   <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E121"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,7 +399,7 @@
         <v>1.7154969999999999E-2</v>
       </c>
       <c r="E2">
-        <v>2.7517877E-2</v>
+        <v>3.1965239999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -416,7 +416,7 @@
         <v>1.7091156999999999E-2</v>
       </c>
       <c r="E3">
-        <v>4.0905728000000002E-2</v>
+        <v>3.2025677000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -433,7 +433,7 @@
         <v>2.0892964E-2</v>
       </c>
       <c r="E4">
-        <v>2.8222514000000001E-2</v>
+        <v>3.7494800000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -450,7 +450,7 @@
         <v>2.7292209000000001E-2</v>
       </c>
       <c r="E5">
-        <v>4.9500799999999998E-2</v>
+        <v>3.2160053000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -467,7 +467,7 @@
         <v>1.7457174999999998E-2</v>
       </c>
       <c r="E6">
-        <v>4.5745380000000002E-2</v>
+        <v>4.7369285999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -484,7 +484,7 @@
         <v>1.6151537000000001E-2</v>
       </c>
       <c r="E7">
-        <v>3.6153998E-2</v>
+        <v>3.6345448000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
         <v>1.6785756999999998E-2</v>
       </c>
       <c r="E8">
-        <v>5.2222277999999997E-2</v>
+        <v>3.3650302E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -518,7 +518,7 @@
         <v>1.2604852E-2</v>
       </c>
       <c r="E9">
-        <v>5.1749389999999999E-2</v>
+        <v>4.1259361000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -535,7 +535,7 @@
         <v>2.1897744E-2</v>
       </c>
       <c r="E10">
-        <v>4.9688633000000003E-2</v>
+        <v>3.8309284999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -552,7 +552,7 @@
         <v>1.5876208999999999E-2</v>
       </c>
       <c r="E11">
-        <v>5.7634185999999997E-2</v>
+        <v>5.0024858999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -569,7 +569,7 @@
         <v>1.2707236E-2</v>
       </c>
       <c r="E12">
-        <v>3.7995471000000003E-2</v>
+        <v>3.6125573000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -586,7 +586,7 @@
         <v>2.2646811999999999E-2</v>
       </c>
       <c r="E13">
-        <v>4.8481600999999999E-2</v>
+        <v>4.1821905999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
         <v>2.5709448999999999E-2</v>
       </c>
       <c r="E14">
-        <v>5.0333772999999998E-2</v>
+        <v>3.6776049999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -620,7 +620,7 @@
         <v>1.9906503999999998E-2</v>
       </c>
       <c r="E15">
-        <v>5.2791250999999997E-2</v>
+        <v>4.9787304999999997E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -637,7 +637,7 @@
         <v>1.8551827E-2</v>
       </c>
       <c r="E16">
-        <v>5.4546631999999998E-2</v>
+        <v>3.9874672E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
         <v>1.5604106E-2</v>
       </c>
       <c r="E17">
-        <v>4.6262378999999999E-2</v>
+        <v>5.0202241000000002E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>1.7175490000000002E-2</v>
       </c>
       <c r="E18">
-        <v>5.0975457000000002E-2</v>
+        <v>4.3934322999999997E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -688,7 +688,7 @@
         <v>1.4477277E-2</v>
       </c>
       <c r="E19">
-        <v>4.3615806999999999E-2</v>
+        <v>3.7190635E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -705,7 +705,7 @@
         <v>2.9389644999999999E-2</v>
       </c>
       <c r="E20">
-        <v>5.3703590000000002E-2</v>
+        <v>4.2898580999999998E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,7 +722,7 @@
         <v>1.7703923999999999E-2</v>
       </c>
       <c r="E21">
-        <v>4.5834272000000002E-2</v>
+        <v>3.8396812000000002E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -739,7 +739,7 @@
         <v>2.1383703E-2</v>
       </c>
       <c r="E22">
-        <v>5.2661922999999999E-2</v>
+        <v>4.259603E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -756,7 +756,7 @@
         <v>1.7645375000000001E-2</v>
       </c>
       <c r="E23">
-        <v>4.6428877E-2</v>
+        <v>4.2427029999999998E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -773,7 +773,7 @@
         <v>1.2321087999999999E-2</v>
       </c>
       <c r="E24">
-        <v>5.6355400999999999E-2</v>
+        <v>4.5415124000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -790,7 +790,7 @@
         <v>1.6468409999999999E-2</v>
       </c>
       <c r="E25">
-        <v>3.7320916000000003E-2</v>
+        <v>4.0630123999999997E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,7 +807,7 @@
         <v>2.5131524999999998E-2</v>
       </c>
       <c r="E26">
-        <v>5.5842630999999997E-2</v>
+        <v>4.0877285999999999E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,7 +824,7 @@
         <v>2.1701782999999999E-2</v>
       </c>
       <c r="E27">
-        <v>3.8458778999999998E-2</v>
+        <v>4.2921358E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,7 +841,7 @@
         <v>1.3873705E-2</v>
       </c>
       <c r="E28">
-        <v>4.7942108999999997E-2</v>
+        <v>4.3911845999999997E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,7 +858,7 @@
         <v>1.6835256999999999E-2</v>
       </c>
       <c r="E29">
-        <v>4.1712079999999999E-2</v>
+        <v>3.0026422000000001E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,7 +875,7 @@
         <v>1.6208775000000002E-2</v>
       </c>
       <c r="E30">
-        <v>4.7299690999999998E-2</v>
+        <v>5.3158563999999998E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,7 +892,7 @@
         <v>1.67385E-2</v>
       </c>
       <c r="E31">
-        <v>4.4468961000000001E-2</v>
+        <v>5.1908438000000001E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -909,7 +909,7 @@
         <v>1.5303512999999999E-2</v>
       </c>
       <c r="E32">
-        <v>4.1676311000000001E-2</v>
+        <v>3.5658449000000002E-2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -926,7 +926,7 @@
         <v>2.4747015000000001E-2</v>
       </c>
       <c r="E33">
-        <v>4.0692219000000002E-2</v>
+        <v>4.8180053E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,7 +943,7 @@
         <v>2.3910038000000002E-2</v>
       </c>
       <c r="E34">
-        <v>4.1319611999999999E-2</v>
+        <v>4.8566037999999999E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -960,7 +960,7 @@
         <v>1.6876940999999999E-2</v>
       </c>
       <c r="E35">
-        <v>3.5583702000000002E-2</v>
+        <v>3.4956617000000002E-2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -977,7 +977,7 @@
         <v>1.8455988E-2</v>
       </c>
       <c r="E36">
-        <v>3.5905661999999998E-2</v>
+        <v>3.4152226000000001E-2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,7 +994,7 @@
         <v>1.7192893000000001E-2</v>
       </c>
       <c r="E37">
-        <v>4.2201845000000002E-2</v>
+        <v>4.4323957999999997E-2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,7 +1011,7 @@
         <v>1.8057726999999999E-2</v>
       </c>
       <c r="E38">
-        <v>3.8690006999999998E-2</v>
+        <v>3.7259609999999999E-2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,7 +1028,7 @@
         <v>1.6723578999999999E-2</v>
       </c>
       <c r="E39">
-        <v>4.4515308000000003E-2</v>
+        <v>3.0588358999999999E-2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,7 +1045,7 @@
         <v>1.610748E-2</v>
       </c>
       <c r="E40">
-        <v>3.3106037999999997E-2</v>
+        <v>4.5395016000000003E-2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,7 +1062,7 @@
         <v>1.6706848999999999E-2</v>
       </c>
       <c r="E41">
-        <v>4.2467427000000002E-2</v>
+        <v>5.0772988999999998E-2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,7 +1079,7 @@
         <v>1.4328435E-2</v>
       </c>
       <c r="E42">
-        <v>3.8706639000000001E-2</v>
+        <v>3.9351100999999999E-2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,7 +1096,7 @@
         <v>1.6600650000000002E-2</v>
       </c>
       <c r="E43">
-        <v>3.8049964999999998E-2</v>
+        <v>4.0843774999999999E-2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1113,7 +1113,7 @@
         <v>2.0658051E-2</v>
       </c>
       <c r="E44">
-        <v>4.2709535E-2</v>
+        <v>3.6714162000000002E-2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1130,7 +1130,7 @@
         <v>1.6720158999999998E-2</v>
       </c>
       <c r="E45">
-        <v>2.6550580000000001E-2</v>
+        <v>3.7976254000000001E-2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,7 +1147,7 @@
         <v>1.12727E-2</v>
       </c>
       <c r="E46">
-        <v>4.7733452000000003E-2</v>
+        <v>3.9044927E-2</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1164,7 +1164,7 @@
         <v>1.6251697999999998E-2</v>
       </c>
       <c r="E47">
-        <v>3.2452795999999999E-2</v>
+        <v>4.3664280999999999E-2</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,7 +1181,7 @@
         <v>1.5431966E-2</v>
       </c>
       <c r="E48">
-        <v>4.8092870000000003E-2</v>
+        <v>4.3480183999999998E-2</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,7 +1198,7 @@
         <v>1.8176599000000002E-2</v>
       </c>
       <c r="E49">
-        <v>3.6115166999999997E-2</v>
+        <v>4.9993538999999997E-2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1215,7 +1215,7 @@
         <v>1.4212205E-2</v>
       </c>
       <c r="E50">
-        <v>3.2586851E-2</v>
+        <v>4.1213477999999998E-2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1232,7 +1232,7 @@
         <v>2.6628306000000001E-2</v>
       </c>
       <c r="E51">
-        <v>3.5094734000000002E-2</v>
+        <v>3.3557333000000002E-2</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
         <v>2.2174255E-2</v>
       </c>
       <c r="E52">
-        <v>4.2928885E-2</v>
+        <v>5.0209075999999998E-2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1266,7 +1266,7 @@
         <v>1.6282205000000001E-2</v>
       </c>
       <c r="E53">
-        <v>3.9535184000000001E-2</v>
+        <v>2.7989058000000001E-2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1283,7 +1283,7 @@
         <v>1.8521306000000001E-2</v>
       </c>
       <c r="E54">
-        <v>3.3154608000000002E-2</v>
+        <v>4.0069884E-2</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1300,7 +1300,7 @@
         <v>1.6905606E-2</v>
       </c>
       <c r="E55">
-        <v>4.0265520999999999E-2</v>
+        <v>5.0923313999999997E-2</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1317,7 +1317,7 @@
         <v>1.5721374E-2</v>
       </c>
       <c r="E56">
-        <v>4.8199198999999998E-2</v>
+        <v>3.2884984999999999E-2</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1334,7 +1334,7 @@
         <v>1.1214136E-2</v>
       </c>
       <c r="E57">
-        <v>3.3782725E-2</v>
+        <v>4.4012458999999997E-2</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1351,7 +1351,7 @@
         <v>2.7060738000000001E-2</v>
       </c>
       <c r="E58">
-        <v>4.4223973E-2</v>
+        <v>3.6094598999999998E-2</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1368,7 +1368,7 @@
         <v>2.1719454999999999E-2</v>
       </c>
       <c r="E59">
-        <v>5.2563836000000003E-2</v>
+        <v>4.0014101000000003E-2</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1385,7 +1385,7 @@
         <v>1.2758752999999999E-2</v>
       </c>
       <c r="E60">
-        <v>4.1023540999999997E-2</v>
+        <v>4.3527142999999997E-2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1402,7 +1402,7 @@
         <v>1.6706855999999999E-2</v>
       </c>
       <c r="E61">
-        <v>3.9818286000000001E-2</v>
+        <v>3.6503340000000002E-2</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1419,7 +1419,7 @@
         <v>1.2877178E-2</v>
       </c>
       <c r="E62">
-        <v>2.8110231999999999E-2</v>
+        <v>3.2778086999999997E-2</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1436,7 +1436,7 @@
         <v>1.4219336000000001E-2</v>
       </c>
       <c r="E63">
-        <v>4.1673268999999999E-2</v>
+        <v>2.2522161999999998E-2</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1453,7 +1453,7 @@
         <v>1.2319333E-2</v>
       </c>
       <c r="E64">
-        <v>1.8128677999999999E-2</v>
+        <v>2.2795116000000001E-2</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1470,7 +1470,7 @@
         <v>2.4768489000000001E-2</v>
       </c>
       <c r="E65">
-        <v>1.6109003E-2</v>
+        <v>1.6111845E-2</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1487,7 +1487,7 @@
         <v>2.0376190999999998E-2</v>
       </c>
       <c r="E66">
-        <v>2.5516193999999999E-2</v>
+        <v>1.6061588000000002E-2</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1504,7 +1504,7 @@
         <v>1.6863512000000001E-2</v>
       </c>
       <c r="E67">
-        <v>2.1692408E-2</v>
+        <v>2.5194431999999999E-2</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1521,7 +1521,7 @@
         <v>1.7550583000000002E-2</v>
       </c>
       <c r="E68">
-        <v>1.427872E-2</v>
+        <v>1.6354407000000001E-2</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1538,7 +1538,7 @@
         <v>1.6328606999999998E-2</v>
       </c>
       <c r="E69">
-        <v>1.6490512999999998E-2</v>
+        <v>1.7524267E-2</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1555,7 +1555,7 @@
         <v>1.6217101000000001E-2</v>
       </c>
       <c r="E70">
-        <v>1.7213282E-2</v>
+        <v>1.6281286999999998E-2</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1572,7 +1572,7 @@
         <v>1.6215706E-2</v>
       </c>
       <c r="E71">
-        <v>1.5528537E-2</v>
+        <v>1.6660205000000001E-2</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1589,7 +1589,7 @@
         <v>1.7141780999999998E-2</v>
       </c>
       <c r="E72">
-        <v>2.5411047999999999E-2</v>
+        <v>1.6851271000000001E-2</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -1606,7 +1606,7 @@
         <v>2.7992241000000001E-2</v>
       </c>
       <c r="E73">
-        <v>1.7196076000000001E-2</v>
+        <v>2.4364792999999999E-2</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -1623,7 +1623,7 @@
         <v>2.1068654999999999E-2</v>
       </c>
       <c r="E74">
-        <v>1.9366096999999999E-2</v>
+        <v>2.0931272000000001E-2</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -1640,7 +1640,7 @@
         <v>1.8496652999999998E-2</v>
       </c>
       <c r="E75">
-        <v>1.6473690999999999E-2</v>
+        <v>1.6232123000000001E-2</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -1657,7 +1657,7 @@
         <v>1.676967E-2</v>
       </c>
       <c r="E76">
-        <v>2.2407779999999999E-2</v>
+        <v>1.6597770000000001E-2</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -1674,7 +1674,7 @@
         <v>1.6853876E-2</v>
       </c>
       <c r="E77">
-        <v>1.9643003999999999E-2</v>
+        <v>1.5546252E-2</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -1691,7 +1691,7 @@
         <v>1.7305086000000001E-2</v>
       </c>
       <c r="E78">
-        <v>1.8528376999999999E-2</v>
+        <v>2.6219685E-2</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -1708,7 +1708,7 @@
         <v>2.0866313000000001E-2</v>
       </c>
       <c r="E79">
-        <v>1.6693215000000001E-2</v>
+        <v>1.7753601000000001E-2</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -1725,7 +1725,7 @@
         <v>1.7677661000000001E-2</v>
       </c>
       <c r="E80">
-        <v>1.6210616000000001E-2</v>
+        <v>1.7267039000000001E-2</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -1742,7 +1742,7 @@
         <v>2.3885375E-2</v>
       </c>
       <c r="E81">
-        <v>1.6669038000000001E-2</v>
+        <v>1.5689445999999999E-2</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -1759,7 +1759,7 @@
         <v>1.5877904000000002E-2</v>
       </c>
       <c r="E82">
-        <v>2.6100992E-2</v>
+        <v>2.4263649000000002E-2</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -1776,7 +1776,7 @@
         <v>1.6764338E-2</v>
       </c>
       <c r="E83">
-        <v>1.7617642999999999E-2</v>
+        <v>2.1553486E-2</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -1793,7 +1793,7 @@
         <v>1.8956704000000001E-2</v>
       </c>
       <c r="E84">
-        <v>1.7076830000000001E-2</v>
+        <v>1.3159202E-2</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -1810,7 +1810,7 @@
         <v>1.6775741E-2</v>
       </c>
       <c r="E85">
-        <v>1.5845847E-2</v>
+        <v>1.6968429E-2</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -1827,7 +1827,7 @@
         <v>1.4218664000000001E-2</v>
       </c>
       <c r="E86">
-        <v>1.8035811999999998E-2</v>
+        <v>1.7194834999999999E-2</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -1844,7 +1844,7 @@
         <v>1.6248296999999998E-2</v>
       </c>
       <c r="E87">
-        <v>2.2159926999999999E-2</v>
+        <v>2.5528807000000001E-2</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -1861,7 +1861,7 @@
         <v>2.8975675999999999E-2</v>
       </c>
       <c r="E88">
-        <v>2.3069866000000001E-2</v>
+        <v>1.8485550999999999E-2</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -1878,7 +1878,7 @@
         <v>2.1052821999999999E-2</v>
       </c>
       <c r="E89">
-        <v>1.5027624E-2</v>
+        <v>1.6351727E-2</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -1895,7 +1895,7 @@
         <v>2.3983986999999998E-2</v>
       </c>
       <c r="E90">
-        <v>1.5935680000000001E-2</v>
+        <v>1.8154190000000001E-2</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -1912,7 +1912,7 @@
         <v>1.7781931000000001E-2</v>
       </c>
       <c r="E91">
-        <v>2.5068841000000001E-2</v>
+        <v>1.4522643E-2</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -1929,7 +1929,7 @@
         <v>1.3662436E-2</v>
       </c>
       <c r="E92">
-        <v>1.6770526000000001E-2</v>
+        <v>2.3956926999999999E-2</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -1946,7 +1946,7 @@
         <v>1.5997042E-2</v>
       </c>
       <c r="E93">
-        <v>1.7264148E-2</v>
+        <v>1.8540495000000001E-2</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -1963,7 +1963,7 @@
         <v>1.6395509999999999E-2</v>
       </c>
       <c r="E94">
-        <v>2.1880584000000002E-2</v>
+        <v>1.6594854999999999E-2</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -1980,7 +1980,7 @@
         <v>1.6592010000000001E-2</v>
       </c>
       <c r="E95">
-        <v>1.6680613E-2</v>
+        <v>1.8966185E-2</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -1997,7 +1997,7 @@
         <v>2.5257134000000001E-2</v>
       </c>
       <c r="E96">
-        <v>1.8301232000000001E-2</v>
+        <v>3.0263559999999998E-2</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2014,7 +2014,7 @@
         <v>2.0704813999999998E-2</v>
       </c>
       <c r="E97">
-        <v>1.8155088E-2</v>
+        <v>2.1130990999999998E-2</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2031,7 +2031,7 @@
         <v>1.7410394999999999E-2</v>
       </c>
       <c r="E98">
-        <v>1.8010912E-2</v>
+        <v>1.6468241000000002E-2</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2048,7 +2048,7 @@
         <v>1.2971306E-2</v>
       </c>
       <c r="E99">
-        <v>1.3010585E-2</v>
+        <v>1.849872E-2</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2065,7 +2065,7 @@
         <v>1.7034192E-2</v>
       </c>
       <c r="E100">
-        <v>2.6409605999999999E-2</v>
+        <v>1.6482912999999998E-2</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2082,7 +2082,7 @@
         <v>1.5987454000000002E-2</v>
       </c>
       <c r="E101">
-        <v>1.8503937000000002E-2</v>
+        <v>2.4617606E-2</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2099,7 +2099,7 @@
         <v>1.5834503999999999E-2</v>
       </c>
       <c r="E102">
-        <v>1.8370239E-2</v>
+        <v>2.0663711000000001E-2</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2116,7 +2116,7 @@
         <v>1.5533241E-2</v>
       </c>
       <c r="E103">
-        <v>1.7353182000000002E-2</v>
+        <v>1.9889E-2</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2133,7 +2133,7 @@
         <v>2.497009E-2</v>
       </c>
       <c r="E104">
-        <v>2.6963236000000002E-2</v>
+        <v>1.5616104E-2</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2150,7 +2150,7 @@
         <v>2.2521342E-2</v>
       </c>
       <c r="E105">
-        <v>1.8225198000000001E-2</v>
+        <v>2.1441700000000001E-2</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2167,7 +2167,7 @@
         <v>1.7253277000000001E-2</v>
       </c>
       <c r="E106">
-        <v>1.8912780000000001E-2</v>
+        <v>2.0425510000000001E-2</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2184,7 +2184,7 @@
         <v>1.9004105E-2</v>
       </c>
       <c r="E107">
-        <v>1.5178499999999999E-2</v>
+        <v>1.9340999000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2201,7 +2201,7 @@
         <v>1.3273999999999999E-2</v>
       </c>
       <c r="E108">
-        <v>1.6641197999999999E-2</v>
+        <v>1.4746443999999999E-2</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2218,7 +2218,7 @@
         <v>1.6774770000000001E-2</v>
       </c>
       <c r="E109">
-        <v>2.4491676E-2</v>
+        <v>2.5108482000000001E-2</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2235,7 +2235,7 @@
         <v>1.8487488999999999E-2</v>
       </c>
       <c r="E110">
-        <v>2.1500036E-2</v>
+        <v>1.9359062E-2</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2252,7 +2252,7 @@
         <v>2.2531098999999999E-2</v>
       </c>
       <c r="E111">
-        <v>2.2262984999999999E-2</v>
+        <v>1.7316807E-2</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -2269,7 +2269,7 @@
         <v>2.4853419000000002E-2</v>
       </c>
       <c r="E112">
-        <v>1.5962061999999999E-2</v>
+        <v>1.6213576E-2</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2286,7 +2286,7 @@
         <v>2.2512543999999999E-2</v>
       </c>
       <c r="E113">
-        <v>2.7606049000000001E-2</v>
+        <v>1.6380563000000001E-2</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2303,7 +2303,7 @@
         <v>1.8596420999999998E-2</v>
       </c>
       <c r="E114">
-        <v>1.6298476999999999E-2</v>
+        <v>2.1313454999999999E-2</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2320,7 +2320,7 @@
         <v>1.7240915999999998E-2</v>
       </c>
       <c r="E115">
-        <v>1.7839721999999999E-2</v>
+        <v>2.1154246000000002E-2</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2337,7 +2337,7 @@
         <v>1.6661721000000001E-2</v>
       </c>
       <c r="E116">
-        <v>1.6625404E-2</v>
+        <v>1.7029282999999999E-2</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2354,7 +2354,7 @@
         <v>1.6710497000000001E-2</v>
       </c>
       <c r="E117">
-        <v>2.8894724E-2</v>
+        <v>1.7760939E-2</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2371,7 +2371,7 @@
         <v>1.6671239000000001E-2</v>
       </c>
       <c r="E118">
-        <v>1.6325672999999999E-2</v>
+        <v>1.5806362000000001E-2</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -2388,7 +2388,7 @@
         <v>2.0723281999999999E-2</v>
       </c>
       <c r="E119">
-        <v>1.6630472E-2</v>
+        <v>2.7227947999999998E-2</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -2405,7 +2405,7 @@
         <v>1.8566078E-2</v>
       </c>
       <c r="E120">
-        <v>1.5750571000000001E-2</v>
+        <v>1.7997534999999999E-2</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -2422,7 +2422,7 @@
         <v>2.5135761E-2</v>
       </c>
       <c r="E121">
-        <v>1.8308456000000001E-2</v>
+        <v>1.6335602000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/FinalResultsPerAlgorithm/HeapSort.xlsx
+++ b/FinalResultsPerAlgorithm/HeapSort.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TuDublin\Masters Project\Git Clone\MastersProject2021\FinalResultsPerAlgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35746658-27EB-421F-A90C-91FFE236C4B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAAD94D-1EB3-4405-84D3-B056672D270E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Iterations</t>
   </si>
@@ -40,6 +48,9 @@
   </si>
   <si>
     <t>Rust</t>
+  </si>
+  <si>
+    <t>Totals</t>
   </si>
 </sst>
 </file>
@@ -63,7 +74,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -71,12 +82,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2425,6 +2446,27 @@
         <v>1.6335602000000001E-2</v>
       </c>
     </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="1">
+        <f>SUM(B2:B121)</f>
+        <v>14.579142138</v>
+      </c>
+      <c r="C122" s="1">
+        <f t="shared" ref="C122:E122" si="0">SUM(C2:C121)</f>
+        <v>2.1928160070000007</v>
+      </c>
+      <c r="D122" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2011099400000003</v>
+      </c>
+      <c r="E122" s="1">
+        <f t="shared" si="0"/>
+        <v>3.6119719270000026</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
